--- a/Silhouette table.xlsx
+++ b/Silhouette table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barneyricca/OneDrive - University of Colorado Colorado Springs/Research in Progress/Littleton - Hurricane/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07C35A61-67B6-8A47-9AEC-A9A336E5E6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{146ADDF5-6E23-DE45-80B3-065BDBFA1C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="15080" yWindow="11860" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Silhouette table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -355,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -541,6 +541,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -588,12 +601,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -605,6 +617,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -959,11 +973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,63 +992,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>345</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.33300000000000002</v>
+      <c r="B2" s="10">
+        <v>133</v>
+      </c>
+      <c r="C2">
+        <v>0.42</v>
       </c>
       <c r="D2" s="3">
         <v>4112</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1042,32 +1043,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>567</v>
+        <v>345</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20100000000000001</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="D3" s="3">
         <v>4095</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>38</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1075,34 +1064,23 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>749</v>
+        <v>567</v>
       </c>
       <c r="C4" s="2">
-        <v>0.152</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D4" s="3">
         <v>4094</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>38</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1110,36 +1088,26 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>961</v>
+        <v>749</v>
       </c>
       <c r="C5" s="2">
-        <v>0.128</v>
+        <v>0.152</v>
       </c>
       <c r="D5" s="3">
         <v>3231</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>871</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>23</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1147,38 +1115,29 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>618</v>
+        <v>961</v>
       </c>
       <c r="C6" s="2">
-        <v>0.17799999999999999</v>
+        <v>0.128</v>
       </c>
       <c r="D6" s="3">
         <v>1524</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>2561</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>38</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1186,40 +1145,32 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>789</v>
+        <v>618</v>
       </c>
       <c r="C7" s="2">
-        <v>0.157</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="D7" s="3">
         <v>1453</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>2561</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>71</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>38</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>9</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1227,42 +1178,35 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1295</v>
+        <v>789</v>
       </c>
       <c r="C8" s="2">
-        <v>0.09</v>
+        <v>0.157</v>
       </c>
       <c r="D8" s="3">
         <v>3228</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>210</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>659</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8">
         <v>23</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1270,44 +1214,38 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>988</v>
+        <v>1295</v>
       </c>
       <c r="C9" s="2">
-        <v>0.13800000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D9" s="3">
         <v>1440</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <v>2302</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>71</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9">
         <v>38</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9">
         <v>259</v>
       </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>9</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1315,46 +1253,41 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>1050</v>
+        <v>988</v>
       </c>
       <c r="C10" s="2">
-        <v>0.13300000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D10" s="3">
         <v>1440</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10">
         <v>2143</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>159</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10">
         <v>71</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10">
         <v>38</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>259</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10">
         <v>9</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1362,48 +1295,44 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>1604</v>
+        <v>1050</v>
       </c>
       <c r="C11" s="2">
-        <v>0.05</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D11" s="3">
         <v>3228</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11">
         <v>208</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>344</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11">
         <v>315</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
         <v>23</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="4">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>5</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1411,50 +1340,47 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1091</v>
+        <v>1604</v>
       </c>
       <c r="C12" s="2">
-        <v>0.122</v>
+        <v>0.05</v>
       </c>
       <c r="D12" s="3">
         <v>1345</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12">
         <v>2143</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>95</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12">
         <v>159</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12">
         <v>71</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12">
         <v>13</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12">
         <v>38</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12">
         <v>259</v>
       </c>
-      <c r="L12" s="4">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="O12">
+        <v>1</v>
+      </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1462,52 +1388,50 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="C13" s="2">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="D13" s="3">
         <v>1229</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13">
         <v>2143</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>95</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13">
         <v>159</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13">
         <v>71</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13">
         <v>13</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13">
         <v>38</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13">
         <v>116</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>259</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>9</v>
       </c>
-      <c r="P13" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="P13">
+        <v>1</v>
+      </c>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1515,54 +1439,53 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1244</v>
+        <v>1070</v>
       </c>
       <c r="C14" s="2">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="D14" s="3">
         <v>2306</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14">
         <v>76</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>922</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14">
         <v>344</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14">
         <v>274</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14">
         <v>132</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14">
         <v>2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14">
         <v>41</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14">
         <v>2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14">
         <v>23</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>3</v>
       </c>
-      <c r="O14" s="4">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>4</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14">
         <v>5</v>
       </c>
-      <c r="R14" s="4"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1570,54 +1493,54 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1142</v>
+        <v>1244</v>
       </c>
       <c r="C15" s="2">
-        <v>0.10100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D15" s="3">
         <v>1229</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15">
         <v>2143</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>95</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15">
         <v>159</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15">
         <v>69</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15">
         <v>13</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15">
         <v>38</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15">
         <v>116</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>259</v>
       </c>
-      <c r="M15" s="4">
-        <v>1</v>
-      </c>
-      <c r="N15" s="4">
-        <v>1</v>
-      </c>
-      <c r="O15" s="4">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>4</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15">
         <v>5</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15">
         <v>2</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15">
         <v>1</v>
       </c>
       <c r="S15" s="1"/>
@@ -1627,59 +1550,63 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>1181</v>
+        <v>1142</v>
       </c>
       <c r="C16" s="2">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D16" s="3">
         <v>1229</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>2143</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>95</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>159</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>69</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>9</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>38</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16">
         <v>116</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>259</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1</v>
-      </c>
-      <c r="P16" s="4">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>4</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>5</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>2</v>
       </c>
       <c r="S16" s="1">
         <v>1</v>
       </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
